--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221712.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224012.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 10:17:52</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 11:40:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224012.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221113.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 11:40:04</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 12:11:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221113.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223513.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 12:11:00</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 12:35:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223513.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224713.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 12:35:52</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 12:47:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224713.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225613.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 12:47:45</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 12:56:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225613.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221313.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 12:56:21</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 01:13:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221313.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223513.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 01:13:29</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 01:35:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223513.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224813.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 01:35:13</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 01:48:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224813.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225713.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 01:48:09</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 01:57:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225713.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221113.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 01:57:03</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 02:11:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221113.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222813.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 02:11:28</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 02:28:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222813.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223713.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 02:28:10</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 02:37:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223713.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224613.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 02:37:58</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 02:46:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224613.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225513.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 02:46:51</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 02:55:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225513.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221113.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 02:55:18</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 03:11:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221113.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223413.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 03:11:03</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 03:34:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223413.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224913.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 03:34:55</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 03:49:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224913.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225613.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 03:49:18</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 03:56:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225613.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221113.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 03:56:40</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 04:11:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221113.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222613.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 04:11:19</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 04:26:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222613.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223513.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 04:26:27</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 04:35:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223513.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224413.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 04:35:15</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 04:44:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224413.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225213.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 04:44:09</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 04:52:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225213.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220113.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 04:52:57</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 05:01:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220113.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222813.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 05:01:40</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 05:28:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222813.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224113.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 05:28:28</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 05:41:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224113.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225213.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 05:41:52</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 05:52:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225213.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225913.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 05:52:13</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 05:59:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225913.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221813.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 05:59:28</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 06:18:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221813.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223113.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 06:18:02</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 06:31:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223113.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224213.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 06:31:20</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 06:42:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224213.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225013.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 06:42:03</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 06:50:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225013.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225913.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 06:50:53</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 06:59:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225913.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221913.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 06:59:15</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 07:19:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221913.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223613.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 07:19:03</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 07:36:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223613.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224613.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 07:36:19</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 07:46:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224613.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225413.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 07:46:01</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 07:54:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225413.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220313.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 07:54:42</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 08:03:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220313.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222013.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 08:03:29</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 08:20:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222013.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223013.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 08:20:34</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 08:30:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223013.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223813.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 08:30:05</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 08:38:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223813.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224713.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 08:38:50</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 08:47:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224713.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225613.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 08:47:51</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 08:56:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225613.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221913.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 08:56:38</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 09:19:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221913.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225413.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 09:19:26</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 09:54:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225413.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221713.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 09:54:14</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 10:17:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221713.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223513.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 10:17:25</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 10:35:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223513.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224513.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 10:35:56</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 10:45:02</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -51765,7 +51765,7 @@
         <v>48</v>
       </c>
       <c r="R634" s="0" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="S634" s="0" t="s">
         <v>148</v>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224513.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225413.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 10:45:02</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 10:54:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225413.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220213.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 10:54:22</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 11:02:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220213.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222213.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 11:02:40</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 11:22:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222213.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223513.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 11:22:48</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 11:35:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223513.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224413.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 11:35:57</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 11:44:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224413.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225313.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 11:44:58</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 11:53:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225313.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220213.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 11:53:44</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 12:02:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220213.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222913.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 12:02:54</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 12:29:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222913.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224213.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 12:29:07</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 12:42:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224213.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225113.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 12:42:53</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 12:51:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225113.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220013.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 12:51:37</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 01:00:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220013.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222613.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 01:00:24</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 01:26:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222613.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224813.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 01:26:38</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 01:48:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224813.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225913.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 01:48:36</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 01:59:39</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -4646,7 +4646,7 @@
     <t>-50°04'12.554"</t>
   </si>
   <si>
-    <t>127.891.093,61</t>
+    <t>130.367.943,09</t>
   </si>
   <si>
     <t>BARRAGEM DO VIGIA</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225913.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221513.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 01:59:39</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 02:15:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221513.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222913.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 02:15:31</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 02:29:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222913.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223813.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 02:29:35</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 02:38:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223813.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224713.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 02:38:24</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 02:47:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224713.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225613.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 02:47:57</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 02:56:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225613.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221213.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 02:56:05</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 03:12:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,16 +5,16 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221213.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223413.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
-  <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 03:12:46</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
+  <si>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 03:34:51</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -12285,6 +12285,9 @@
   </si>
   <si>
     <t>-48°21'04.800"</t>
+  </si>
+  <si>
+    <t>268.926,00</t>
   </si>
   <si>
     <t>Tanque Específico IX-B</t>
@@ -41368,16 +41371,16 @@
         <v>44</v>
       </c>
       <c r="N465" s="0" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="O465" s="0" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="P465" s="0" t="s">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="Q465" s="0" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="R465" s="0" t="s">
         <v>33</v>
@@ -67692,7 +67695,7 @@
         <v>14.4</v>
       </c>
       <c r="L892" s="0" t="s">
-        <v>174</v>
+        <v>4091</v>
       </c>
       <c r="M892" s="0" t="s">
         <v>147</v>
@@ -67724,7 +67727,7 @@
         <v>8434</v>
       </c>
       <c r="B893" s="0" t="s">
-        <v>4091</v>
+        <v>4092</v>
       </c>
       <c r="C893" s="0" t="s">
         <v>1571</v>
@@ -67733,10 +67736,10 @@
         <v>1572</v>
       </c>
       <c r="E893" s="0" t="s">
-        <v>4092</v>
+        <v>4093</v>
       </c>
       <c r="F893" s="0" t="s">
-        <v>4093</v>
+        <v>4094</v>
       </c>
       <c r="G893" s="0" t="s">
         <v>26</v>
@@ -67754,7 +67757,7 @@
         <v>15</v>
       </c>
       <c r="L893" s="0" t="s">
-        <v>4094</v>
+        <v>4095</v>
       </c>
       <c r="M893" s="0" t="s">
         <v>44</v>
@@ -67786,7 +67789,7 @@
         <v>8436</v>
       </c>
       <c r="B894" s="0" t="s">
-        <v>4095</v>
+        <v>4096</v>
       </c>
       <c r="C894" s="0" t="s">
         <v>1571</v>
@@ -67795,10 +67798,10 @@
         <v>1572</v>
       </c>
       <c r="E894" s="0" t="s">
-        <v>4096</v>
+        <v>4097</v>
       </c>
       <c r="F894" s="0" t="s">
-        <v>4097</v>
+        <v>4098</v>
       </c>
       <c r="G894" s="0" t="s">
         <v>26</v>
@@ -67816,7 +67819,7 @@
         <v>30</v>
       </c>
       <c r="L894" s="0" t="s">
-        <v>4098</v>
+        <v>4099</v>
       </c>
       <c r="M894" s="0" t="s">
         <v>44</v>
@@ -67848,7 +67851,7 @@
         <v>8437</v>
       </c>
       <c r="B895" s="0" t="s">
-        <v>4099</v>
+        <v>4100</v>
       </c>
       <c r="C895" s="0" t="s">
         <v>1571</v>
@@ -67857,10 +67860,10 @@
         <v>1572</v>
       </c>
       <c r="E895" s="0" t="s">
-        <v>4100</v>
+        <v>4101</v>
       </c>
       <c r="F895" s="0" t="s">
-        <v>4101</v>
+        <v>4102</v>
       </c>
       <c r="G895" s="0" t="s">
         <v>26</v>
@@ -67878,7 +67881,7 @@
         <v>11.8</v>
       </c>
       <c r="L895" s="0" t="s">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="M895" s="0" t="s">
         <v>44</v>
@@ -67910,7 +67913,7 @@
         <v>8438</v>
       </c>
       <c r="B896" s="0" t="s">
-        <v>4103</v>
+        <v>4104</v>
       </c>
       <c r="C896" s="0" t="s">
         <v>1571</v>
@@ -67919,10 +67922,10 @@
         <v>1572</v>
       </c>
       <c r="E896" s="0" t="s">
-        <v>4104</v>
+        <v>4105</v>
       </c>
       <c r="F896" s="0" t="s">
-        <v>4105</v>
+        <v>4106</v>
       </c>
       <c r="G896" s="0" t="s">
         <v>26</v>
@@ -67940,7 +67943,7 @@
         <v>58</v>
       </c>
       <c r="L896" s="0" t="s">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="M896" s="0" t="s">
         <v>85</v>
@@ -67972,19 +67975,19 @@
         <v>8855</v>
       </c>
       <c r="B897" s="0" t="s">
-        <v>4107</v>
+        <v>4108</v>
       </c>
       <c r="C897" s="0" t="s">
-        <v>4108</v>
+        <v>4109</v>
       </c>
       <c r="D897" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E897" s="0" t="s">
-        <v>4109</v>
+        <v>4110</v>
       </c>
       <c r="F897" s="0" t="s">
-        <v>4110</v>
+        <v>4111</v>
       </c>
       <c r="G897" s="0" t="s">
         <v>26</v>
@@ -68002,7 +68005,7 @@
         <v>15</v>
       </c>
       <c r="L897" s="0" t="s">
-        <v>4111</v>
+        <v>4112</v>
       </c>
       <c r="M897" s="0" t="s">
         <v>85</v>
@@ -68034,7 +68037,7 @@
         <v>9051</v>
       </c>
       <c r="B898" s="0" t="s">
-        <v>4112</v>
+        <v>4113</v>
       </c>
       <c r="C898" s="0" t="s">
         <v>3140</v>
@@ -68043,10 +68046,10 @@
         <v>3141</v>
       </c>
       <c r="E898" s="0" t="s">
-        <v>4113</v>
+        <v>4114</v>
       </c>
       <c r="F898" s="0" t="s">
-        <v>4114</v>
+        <v>4115</v>
       </c>
       <c r="G898" s="0" t="s">
         <v>699</v>
@@ -68064,7 +68067,7 @@
         <v>36</v>
       </c>
       <c r="L898" s="0" t="s">
-        <v>4115</v>
+        <v>4116</v>
       </c>
       <c r="M898" s="0" t="s">
         <v>44</v>
@@ -68096,7 +68099,7 @@
         <v>8249</v>
       </c>
       <c r="B899" s="0" t="s">
-        <v>4116</v>
+        <v>4117</v>
       </c>
       <c r="C899" s="0" t="s">
         <v>52</v>
@@ -68105,10 +68108,10 @@
         <v>53</v>
       </c>
       <c r="E899" s="0" t="s">
-        <v>4117</v>
+        <v>4118</v>
       </c>
       <c r="F899" s="0" t="s">
-        <v>4118</v>
+        <v>4119</v>
       </c>
       <c r="G899" s="0" t="s">
         <v>26</v>
@@ -68126,7 +68129,7 @@
         <v>25</v>
       </c>
       <c r="L899" s="0" t="s">
-        <v>4119</v>
+        <v>4120</v>
       </c>
       <c r="M899" s="0" t="s">
         <v>44</v>
@@ -68158,19 +68161,19 @@
         <v>9897</v>
       </c>
       <c r="B900" s="0" t="s">
-        <v>4120</v>
+        <v>4121</v>
       </c>
       <c r="C900" s="0" t="s">
-        <v>4121</v>
+        <v>4122</v>
       </c>
       <c r="D900" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E900" s="0" t="s">
-        <v>4122</v>
+        <v>4123</v>
       </c>
       <c r="F900" s="0" t="s">
-        <v>4123</v>
+        <v>4124</v>
       </c>
       <c r="G900" s="0" t="s">
         <v>26</v>
@@ -68217,7 +68220,7 @@
         <v>8870</v>
       </c>
       <c r="B901" s="0" t="s">
-        <v>4124</v>
+        <v>4125</v>
       </c>
       <c r="C901" s="0" t="s">
         <v>1844</v>
@@ -68226,10 +68229,10 @@
         <v>1845</v>
       </c>
       <c r="E901" s="0" t="s">
-        <v>4125</v>
+        <v>4126</v>
       </c>
       <c r="F901" s="0" t="s">
-        <v>4126</v>
+        <v>4127</v>
       </c>
       <c r="G901" s="0" t="s">
         <v>26</v>
@@ -68247,7 +68250,7 @@
         <v>28</v>
       </c>
       <c r="L901" s="0" t="s">
-        <v>4127</v>
+        <v>4128</v>
       </c>
       <c r="M901" s="0" t="s">
         <v>226</v>
@@ -68279,19 +68282,19 @@
         <v>9753</v>
       </c>
       <c r="B902" s="0" t="s">
-        <v>4128</v>
+        <v>4129</v>
       </c>
       <c r="C902" s="0" t="s">
-        <v>4129</v>
+        <v>4130</v>
       </c>
       <c r="D902" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E902" s="0" t="s">
-        <v>4130</v>
+        <v>4131</v>
       </c>
       <c r="F902" s="0" t="s">
-        <v>4131</v>
+        <v>4132</v>
       </c>
       <c r="G902" s="0" t="s">
         <v>26</v>
@@ -68338,19 +68341,19 @@
         <v>9849</v>
       </c>
       <c r="B903" s="0" t="s">
-        <v>4132</v>
+        <v>4133</v>
       </c>
       <c r="C903" s="0" t="s">
-        <v>4129</v>
+        <v>4130</v>
       </c>
       <c r="D903" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E903" s="0" t="s">
-        <v>4133</v>
+        <v>4134</v>
       </c>
       <c r="F903" s="0" t="s">
-        <v>4134</v>
+        <v>4135</v>
       </c>
       <c r="G903" s="0" t="s">
         <v>26</v>
@@ -68397,25 +68400,25 @@
         <v>8951</v>
       </c>
       <c r="B904" s="0" t="s">
-        <v>4135</v>
+        <v>4136</v>
       </c>
       <c r="C904" s="0" t="s">
-        <v>4136</v>
+        <v>4137</v>
       </c>
       <c r="D904" s="0" t="s">
-        <v>4137</v>
+        <v>4138</v>
       </c>
       <c r="E904" s="0" t="s">
-        <v>4138</v>
+        <v>4139</v>
       </c>
       <c r="F904" s="0" t="s">
-        <v>4139</v>
+        <v>4140</v>
       </c>
       <c r="G904" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H904" s="0" t="s">
-        <v>4140</v>
+        <v>4141</v>
       </c>
       <c r="I904" s="0" t="s">
         <v>70</v>
@@ -68427,7 +68430,7 @@
         <v>14.8</v>
       </c>
       <c r="L904" s="0" t="s">
-        <v>4141</v>
+        <v>4142</v>
       </c>
       <c r="M904" s="0" t="s">
         <v>44</v>
@@ -68459,7 +68462,7 @@
         <v>8204</v>
       </c>
       <c r="B905" s="0" t="s">
-        <v>4142</v>
+        <v>4143</v>
       </c>
       <c r="C905" s="0" t="s">
         <v>52</v>
@@ -68468,10 +68471,10 @@
         <v>53</v>
       </c>
       <c r="E905" s="0" t="s">
-        <v>4143</v>
+        <v>4144</v>
       </c>
       <c r="F905" s="0" t="s">
-        <v>4144</v>
+        <v>4145</v>
       </c>
       <c r="G905" s="0" t="s">
         <v>26</v>
@@ -68489,7 +68492,7 @@
         <v>64.9</v>
       </c>
       <c r="L905" s="0" t="s">
-        <v>4145</v>
+        <v>4146</v>
       </c>
       <c r="M905" s="0" t="s">
         <v>44</v>
@@ -68521,7 +68524,7 @@
         <v>8601</v>
       </c>
       <c r="B906" s="0" t="s">
-        <v>4146</v>
+        <v>4147</v>
       </c>
       <c r="C906" s="0" t="s">
         <v>977</v>
@@ -68530,10 +68533,10 @@
         <v>978</v>
       </c>
       <c r="E906" s="0" t="s">
-        <v>4147</v>
+        <v>4148</v>
       </c>
       <c r="F906" s="0" t="s">
-        <v>4148</v>
+        <v>4149</v>
       </c>
       <c r="G906" s="0" t="s">
         <v>26</v>
@@ -68551,7 +68554,7 @@
         <v>21.9</v>
       </c>
       <c r="L906" s="0" t="s">
-        <v>4149</v>
+        <v>4150</v>
       </c>
       <c r="M906" s="0" t="s">
         <v>44</v>
@@ -68583,7 +68586,7 @@
         <v>8602</v>
       </c>
       <c r="B907" s="0" t="s">
-        <v>4150</v>
+        <v>4151</v>
       </c>
       <c r="C907" s="0" t="s">
         <v>977</v>
@@ -68592,10 +68595,10 @@
         <v>978</v>
       </c>
       <c r="E907" s="0" t="s">
-        <v>4151</v>
+        <v>4152</v>
       </c>
       <c r="F907" s="0" t="s">
-        <v>4152</v>
+        <v>4153</v>
       </c>
       <c r="G907" s="0" t="s">
         <v>26</v>
@@ -68613,7 +68616,7 @@
         <v>19.5</v>
       </c>
       <c r="L907" s="0" t="s">
-        <v>4153</v>
+        <v>4154</v>
       </c>
       <c r="M907" s="0" t="s">
         <v>44</v>
@@ -68645,7 +68648,7 @@
         <v>9289</v>
       </c>
       <c r="B908" s="0" t="s">
-        <v>4154</v>
+        <v>4155</v>
       </c>
       <c r="C908" s="0" t="s">
         <v>977</v>
@@ -68654,10 +68657,10 @@
         <v>978</v>
       </c>
       <c r="E908" s="0" t="s">
-        <v>4155</v>
+        <v>4156</v>
       </c>
       <c r="F908" s="0" t="s">
-        <v>4156</v>
+        <v>4157</v>
       </c>
       <c r="G908" s="0" t="s">
         <v>26</v>
@@ -68675,7 +68678,7 @@
         <v>17</v>
       </c>
       <c r="L908" s="0" t="s">
-        <v>4157</v>
+        <v>4158</v>
       </c>
       <c r="M908" s="0" t="s">
         <v>85</v>
@@ -68707,19 +68710,19 @@
         <v>9446</v>
       </c>
       <c r="B909" s="0" t="s">
-        <v>4158</v>
+        <v>4159</v>
       </c>
       <c r="C909" s="0" t="s">
-        <v>4159</v>
+        <v>4160</v>
       </c>
       <c r="D909" s="0" t="s">
-        <v>4160</v>
+        <v>4161</v>
       </c>
       <c r="E909" s="0" t="s">
-        <v>4161</v>
+        <v>4162</v>
       </c>
       <c r="F909" s="0" t="s">
-        <v>4162</v>
+        <v>4163</v>
       </c>
       <c r="G909" s="0" t="s">
         <v>26</v>
@@ -68769,19 +68772,19 @@
         <v>9015</v>
       </c>
       <c r="B910" s="0" t="s">
-        <v>4158</v>
+        <v>4159</v>
       </c>
       <c r="C910" s="0" t="s">
+        <v>4164</v>
+      </c>
+      <c r="D910" s="0" t="s">
+        <v>4165</v>
+      </c>
+      <c r="E910" s="0" t="s">
+        <v>4162</v>
+      </c>
+      <c r="F910" s="0" t="s">
         <v>4163</v>
-      </c>
-      <c r="D910" s="0" t="s">
-        <v>4164</v>
-      </c>
-      <c r="E910" s="0" t="s">
-        <v>4161</v>
-      </c>
-      <c r="F910" s="0" t="s">
-        <v>4162</v>
       </c>
       <c r="G910" s="0" t="s">
         <v>26</v>
@@ -68831,19 +68834,19 @@
         <v>9447</v>
       </c>
       <c r="B911" s="0" t="s">
-        <v>4165</v>
+        <v>4166</v>
       </c>
       <c r="C911" s="0" t="s">
-        <v>4159</v>
+        <v>4160</v>
       </c>
       <c r="D911" s="0" t="s">
-        <v>4160</v>
+        <v>4161</v>
       </c>
       <c r="E911" s="0" t="s">
-        <v>4166</v>
+        <v>4167</v>
       </c>
       <c r="F911" s="0" t="s">
-        <v>4167</v>
+        <v>4168</v>
       </c>
       <c r="G911" s="0" t="s">
         <v>26</v>
@@ -68893,19 +68896,19 @@
         <v>9016</v>
       </c>
       <c r="B912" s="0" t="s">
+        <v>4166</v>
+      </c>
+      <c r="C912" s="0" t="s">
+        <v>4164</v>
+      </c>
+      <c r="D912" s="0" t="s">
         <v>4165</v>
       </c>
-      <c r="C912" s="0" t="s">
-        <v>4163</v>
-      </c>
-      <c r="D912" s="0" t="s">
-        <v>4164</v>
-      </c>
       <c r="E912" s="0" t="s">
-        <v>4166</v>
+        <v>4167</v>
       </c>
       <c r="F912" s="0" t="s">
-        <v>4167</v>
+        <v>4168</v>
       </c>
       <c r="G912" s="0" t="s">
         <v>26</v>
@@ -68955,19 +68958,19 @@
         <v>9836</v>
       </c>
       <c r="B913" s="0" t="s">
-        <v>4168</v>
+        <v>4169</v>
       </c>
       <c r="C913" s="0" t="s">
-        <v>4169</v>
+        <v>4170</v>
       </c>
       <c r="D913" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E913" s="0" t="s">
-        <v>4170</v>
+        <v>4171</v>
       </c>
       <c r="F913" s="0" t="s">
-        <v>4171</v>
+        <v>4172</v>
       </c>
       <c r="G913" s="0" t="s">
         <v>26</v>
@@ -68985,7 +68988,7 @@
         <v>22</v>
       </c>
       <c r="L913" s="0" t="s">
-        <v>4172</v>
+        <v>4173</v>
       </c>
       <c r="M913" s="0" t="s">
         <v>226</v>
@@ -69017,19 +69020,19 @@
         <v>9837</v>
       </c>
       <c r="B914" s="0" t="s">
-        <v>4173</v>
+        <v>4174</v>
       </c>
       <c r="C914" s="0" t="s">
-        <v>4169</v>
+        <v>4170</v>
       </c>
       <c r="D914" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E914" s="0" t="s">
-        <v>4174</v>
+        <v>4175</v>
       </c>
       <c r="F914" s="0" t="s">
-        <v>4175</v>
+        <v>4176</v>
       </c>
       <c r="G914" s="0" t="s">
         <v>26</v>
@@ -69047,7 +69050,7 @@
         <v>15</v>
       </c>
       <c r="L914" s="0" t="s">
-        <v>4176</v>
+        <v>4177</v>
       </c>
       <c r="M914" s="0" t="s">
         <v>226</v>
@@ -69079,7 +69082,7 @@
         <v>8539</v>
       </c>
       <c r="B915" s="0" t="s">
-        <v>4177</v>
+        <v>4178</v>
       </c>
       <c r="C915" s="0" t="s">
         <v>1710</v>
@@ -69088,16 +69091,16 @@
         <v>1711</v>
       </c>
       <c r="E915" s="0" t="s">
-        <v>4178</v>
+        <v>4179</v>
       </c>
       <c r="F915" s="0" t="s">
-        <v>4179</v>
+        <v>4180</v>
       </c>
       <c r="G915" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H915" s="0" t="s">
-        <v>4180</v>
+        <v>4181</v>
       </c>
       <c r="I915" s="0" t="s">
         <v>120</v>
@@ -69109,7 +69112,7 @@
         <v>18</v>
       </c>
       <c r="L915" s="0" t="s">
-        <v>4181</v>
+        <v>4182</v>
       </c>
       <c r="M915" s="0" t="s">
         <v>44</v>
@@ -69141,7 +69144,7 @@
         <v>9157</v>
       </c>
       <c r="B916" s="0" t="s">
-        <v>4182</v>
+        <v>4183</v>
       </c>
       <c r="C916" s="0" t="s">
         <v>1502</v>
@@ -69150,10 +69153,10 @@
         <v>1503</v>
       </c>
       <c r="E916" s="0" t="s">
-        <v>4183</v>
+        <v>4184</v>
       </c>
       <c r="F916" s="0" t="s">
-        <v>4184</v>
+        <v>4185</v>
       </c>
       <c r="G916" s="0" t="s">
         <v>26</v>
@@ -69171,7 +69174,7 @@
         <v>30</v>
       </c>
       <c r="L916" s="0" t="s">
-        <v>4185</v>
+        <v>4186</v>
       </c>
       <c r="M916" s="0" t="s">
         <v>147</v>
@@ -69203,7 +69206,7 @@
         <v>9471</v>
       </c>
       <c r="B917" s="0" t="s">
-        <v>4186</v>
+        <v>4187</v>
       </c>
       <c r="C917" s="0" t="s">
         <v>1502</v>
@@ -69212,10 +69215,10 @@
         <v>1503</v>
       </c>
       <c r="E917" s="0" t="s">
-        <v>4187</v>
+        <v>4188</v>
       </c>
       <c r="F917" s="0" t="s">
-        <v>4188</v>
+        <v>4189</v>
       </c>
       <c r="G917" s="0" t="s">
         <v>26</v>
@@ -69233,7 +69236,7 @@
         <v>31</v>
       </c>
       <c r="L917" s="0" t="s">
-        <v>4189</v>
+        <v>4190</v>
       </c>
       <c r="M917" s="0" t="s">
         <v>147</v>
@@ -69265,7 +69268,7 @@
         <v>9156</v>
       </c>
       <c r="B918" s="0" t="s">
-        <v>4190</v>
+        <v>4191</v>
       </c>
       <c r="C918" s="0" t="s">
         <v>1502</v>
@@ -69274,10 +69277,10 @@
         <v>1503</v>
       </c>
       <c r="E918" s="0" t="s">
-        <v>4191</v>
+        <v>4192</v>
       </c>
       <c r="F918" s="0" t="s">
-        <v>4192</v>
+        <v>4193</v>
       </c>
       <c r="G918" s="0" t="s">
         <v>26</v>
@@ -69295,7 +69298,7 @@
         <v>25</v>
       </c>
       <c r="L918" s="0" t="s">
-        <v>4193</v>
+        <v>4194</v>
       </c>
       <c r="M918" s="0" t="s">
         <v>85</v>
@@ -69327,7 +69330,7 @@
         <v>9158</v>
       </c>
       <c r="B919" s="0" t="s">
-        <v>4194</v>
+        <v>4195</v>
       </c>
       <c r="C919" s="0" t="s">
         <v>1502</v>
@@ -69336,10 +69339,10 @@
         <v>1503</v>
       </c>
       <c r="E919" s="0" t="s">
-        <v>4195</v>
+        <v>4196</v>
       </c>
       <c r="F919" s="0" t="s">
-        <v>4196</v>
+        <v>4197</v>
       </c>
       <c r="G919" s="0" t="s">
         <v>26</v>
@@ -69357,7 +69360,7 @@
         <v>20</v>
       </c>
       <c r="L919" s="0" t="s">
-        <v>4197</v>
+        <v>4198</v>
       </c>
       <c r="M919" s="0" t="s">
         <v>85</v>
@@ -69389,25 +69392,25 @@
         <v>9078</v>
       </c>
       <c r="B920" s="0" t="s">
-        <v>4198</v>
+        <v>4199</v>
       </c>
       <c r="C920" s="0" t="s">
-        <v>4199</v>
+        <v>4200</v>
       </c>
       <c r="D920" s="0" t="s">
-        <v>4200</v>
+        <v>4201</v>
       </c>
       <c r="E920" s="0" t="s">
-        <v>4201</v>
+        <v>4202</v>
       </c>
       <c r="F920" s="0" t="s">
-        <v>4202</v>
+        <v>4203</v>
       </c>
       <c r="G920" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H920" s="0" t="s">
-        <v>4203</v>
+        <v>4204</v>
       </c>
       <c r="I920" s="0" t="s">
         <v>70</v>
@@ -69419,7 +69422,7 @@
         <v>8</v>
       </c>
       <c r="L920" s="0" t="s">
-        <v>4204</v>
+        <v>4205</v>
       </c>
       <c r="M920" s="0" t="s">
         <v>44</v>
@@ -69451,7 +69454,7 @@
         <v>8269</v>
       </c>
       <c r="B921" s="0" t="s">
-        <v>4205</v>
+        <v>4206</v>
       </c>
       <c r="C921" s="0" t="s">
         <v>1541</v>
@@ -69460,16 +69463,16 @@
         <v>53</v>
       </c>
       <c r="E921" s="0" t="s">
-        <v>4206</v>
+        <v>4207</v>
       </c>
       <c r="F921" s="0" t="s">
-        <v>4207</v>
+        <v>4208</v>
       </c>
       <c r="G921" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H921" s="0" t="s">
-        <v>4208</v>
+        <v>4209</v>
       </c>
       <c r="I921" s="0" t="s">
         <v>57</v>
@@ -69481,7 +69484,7 @@
         <v>8.5</v>
       </c>
       <c r="L921" s="0" t="s">
-        <v>4209</v>
+        <v>4210</v>
       </c>
       <c r="M921" s="0" t="s">
         <v>44</v>
@@ -69513,7 +69516,7 @@
         <v>8786</v>
       </c>
       <c r="B922" s="0" t="s">
-        <v>4210</v>
+        <v>4211</v>
       </c>
       <c r="C922" s="0" t="s">
         <v>3273</v>
@@ -69522,10 +69525,10 @@
         <v>3274</v>
       </c>
       <c r="E922" s="0" t="s">
-        <v>4211</v>
+        <v>4212</v>
       </c>
       <c r="F922" s="0" t="s">
-        <v>4212</v>
+        <v>4213</v>
       </c>
       <c r="G922" s="0" t="s">
         <v>26</v>
@@ -69575,7 +69578,7 @@
         <v>9100</v>
       </c>
       <c r="B923" s="0" t="s">
-        <v>4213</v>
+        <v>4214</v>
       </c>
       <c r="C923" s="0" t="s">
         <v>52</v>
@@ -69584,10 +69587,10 @@
         <v>53</v>
       </c>
       <c r="E923" s="0" t="s">
-        <v>4214</v>
+        <v>4215</v>
       </c>
       <c r="F923" s="0" t="s">
-        <v>4215</v>
+        <v>4216</v>
       </c>
       <c r="G923" s="0" t="s">
         <v>26</v>
@@ -69605,7 +69608,7 @@
         <v>35</v>
       </c>
       <c r="L923" s="0" t="s">
-        <v>4216</v>
+        <v>4217</v>
       </c>
       <c r="M923" s="0" t="s">
         <v>147</v>
@@ -69637,7 +69640,7 @@
         <v>10041</v>
       </c>
       <c r="B924" s="0" t="s">
-        <v>4217</v>
+        <v>4218</v>
       </c>
       <c r="C924" s="0" t="s">
         <v>1615</v>
@@ -69646,10 +69649,10 @@
         <v>199</v>
       </c>
       <c r="E924" s="0" t="s">
-        <v>4218</v>
+        <v>4219</v>
       </c>
       <c r="F924" s="0" t="s">
-        <v>4219</v>
+        <v>4220</v>
       </c>
       <c r="G924" s="0" t="s">
         <v>26</v>
@@ -69696,7 +69699,7 @@
         <v>8456</v>
       </c>
       <c r="B925" s="0" t="s">
-        <v>4220</v>
+        <v>4221</v>
       </c>
       <c r="C925" s="0" t="s">
         <v>52</v>
@@ -69705,10 +69708,10 @@
         <v>53</v>
       </c>
       <c r="E925" s="0" t="s">
-        <v>4221</v>
+        <v>4222</v>
       </c>
       <c r="F925" s="0" t="s">
-        <v>4222</v>
+        <v>4223</v>
       </c>
       <c r="G925" s="0" t="s">
         <v>26</v>
@@ -69726,7 +69729,7 @@
         <v>45.15</v>
       </c>
       <c r="L925" s="0" t="s">
-        <v>4223</v>
+        <v>4224</v>
       </c>
       <c r="M925" s="0" t="s">
         <v>44</v>
@@ -69758,7 +69761,7 @@
         <v>8457</v>
       </c>
       <c r="B926" s="0" t="s">
-        <v>4224</v>
+        <v>4225</v>
       </c>
       <c r="C926" s="0" t="s">
         <v>52</v>
@@ -69767,10 +69770,10 @@
         <v>53</v>
       </c>
       <c r="E926" s="0" t="s">
-        <v>4225</v>
+        <v>4226</v>
       </c>
       <c r="F926" s="0" t="s">
-        <v>4226</v>
+        <v>4227</v>
       </c>
       <c r="G926" s="0" t="s">
         <v>26</v>
@@ -69788,7 +69791,7 @@
         <v>22.5</v>
       </c>
       <c r="L926" s="0" t="s">
-        <v>4227</v>
+        <v>4228</v>
       </c>
       <c r="M926" s="0" t="s">
         <v>44</v>
@@ -69820,19 +69823,19 @@
         <v>8744</v>
       </c>
       <c r="B927" s="0" t="s">
-        <v>4228</v>
+        <v>4229</v>
       </c>
       <c r="C927" s="0" t="s">
-        <v>4229</v>
+        <v>4230</v>
       </c>
       <c r="D927" s="0" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
       <c r="E927" s="0" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
       <c r="F927" s="0" t="s">
-        <v>4232</v>
+        <v>4233</v>
       </c>
       <c r="G927" s="0" t="s">
         <v>699</v>
@@ -69850,7 +69853,7 @@
         <v>15.5</v>
       </c>
       <c r="L927" s="0" t="s">
-        <v>4233</v>
+        <v>4234</v>
       </c>
       <c r="M927" s="0" t="s">
         <v>44</v>
@@ -69882,37 +69885,37 @@
         <v>8857</v>
       </c>
       <c r="B928" s="0" t="s">
-        <v>4234</v>
+        <v>4235</v>
       </c>
       <c r="C928" s="0" t="s">
-        <v>4235</v>
+        <v>4236</v>
       </c>
       <c r="D928" s="0" t="s">
-        <v>4236</v>
+        <v>4237</v>
       </c>
       <c r="E928" s="0" t="s">
-        <v>4237</v>
+        <v>4238</v>
       </c>
       <c r="F928" s="0" t="s">
-        <v>4238</v>
+        <v>4239</v>
       </c>
       <c r="G928" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H928" s="0" t="s">
-        <v>4239</v>
+        <v>4240</v>
       </c>
       <c r="I928" s="0" t="s">
         <v>120</v>
       </c>
       <c r="J928" s="0" t="s">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="K928" s="0">
         <v>25</v>
       </c>
       <c r="L928" s="0" t="s">
-        <v>4241</v>
+        <v>4242</v>
       </c>
       <c r="M928" s="0" t="s">
         <v>147</v>
@@ -69944,19 +69947,19 @@
         <v>9357</v>
       </c>
       <c r="B929" s="0" t="s">
-        <v>4242</v>
+        <v>4243</v>
       </c>
       <c r="C929" s="0" t="s">
-        <v>4235</v>
+        <v>4236</v>
       </c>
       <c r="D929" s="0" t="s">
-        <v>4236</v>
+        <v>4237</v>
       </c>
       <c r="E929" s="0" t="s">
-        <v>4243</v>
+        <v>4244</v>
       </c>
       <c r="F929" s="0" t="s">
-        <v>4244</v>
+        <v>4245</v>
       </c>
       <c r="G929" s="0" t="s">
         <v>26</v>
@@ -69968,13 +69971,13 @@
         <v>120</v>
       </c>
       <c r="J929" s="0" t="s">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="K929" s="0">
         <v>19</v>
       </c>
       <c r="L929" s="0" t="s">
-        <v>4245</v>
+        <v>4246</v>
       </c>
       <c r="M929" s="0" t="s">
         <v>44</v>
@@ -70006,7 +70009,7 @@
         <v>9534</v>
       </c>
       <c r="B930" s="0" t="s">
-        <v>4246</v>
+        <v>4247</v>
       </c>
       <c r="C930" s="0" t="s">
         <v>52</v>
@@ -70015,10 +70018,10 @@
         <v>53</v>
       </c>
       <c r="E930" s="0" t="s">
-        <v>4247</v>
+        <v>4248</v>
       </c>
       <c r="F930" s="0" t="s">
-        <v>4248</v>
+        <v>4249</v>
       </c>
       <c r="G930" s="0" t="s">
         <v>26</v>
@@ -70036,7 +70039,7 @@
         <v>70</v>
       </c>
       <c r="L930" s="0" t="s">
-        <v>4249</v>
+        <v>4250</v>
       </c>
       <c r="M930" s="0" t="s">
         <v>147</v>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223413.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224713.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 03:34:51</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 03:47:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224713.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225513.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 03:47:16</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 03:55:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225513.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220813.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 03:55:40</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 04:08:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220813.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222213.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 04:08:42</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 04:22:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222213.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223013.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 04:22:13</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 04:30:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223013.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223913.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 04:30:30</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 04:39:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223913.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224813.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 04:39:48</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 04:48:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224813.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225713.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 04:48:31</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 04:57:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225713.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221413.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 04:57:29</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 05:14:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221413.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223013.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 05:14:21</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 05:30:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223013.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224313.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 05:30:32</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 05:43:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224313.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224913.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 05:43:09</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 05:49:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224913.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225813.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 05:49:50</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 05:58:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225813.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221313.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 05:58:05</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 06:13:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221313.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222713.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 06:13:45</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 06:27:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222713.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223713.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 06:27:40</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 06:37:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223713.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224613.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 06:37:20</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 06:46:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224613.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225413.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 06:46:07</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 06:54:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225413.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220413.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 06:54:46</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 07:04:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220413.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222413.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 07:04:42</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 07:24:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222413.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223513.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 07:24:34</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 07:35:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223513.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224413.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 07:35:30</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 07:44:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224413.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225313.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 07:44:12</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 07:53:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225313.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220213.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 07:53:19</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 08:02:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220213.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222313.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 08:02:23</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 08:23:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222313.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223313.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 08:23:33</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 08:33:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223313.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224213.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 08:33:32</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 08:42:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224213.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225113.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 08:42:57</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 08:51:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-13.xlsx
+++ b/sigbm_download_2022-12-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225113.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220013.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 08:51:46</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 09:00:34</t>
   </si>
   <si>
     <t>ID Barragem</t>
